--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_99_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_99_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[1.9518023858133193, 2.3328118547368075]</t>
+          <t>[1.9505581430582244, 2.3340560974919025]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09579218647661003, 0.36271845263459346]</t>
+          <t>[0.09587535906892919, 0.3626352800422743]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.001194688536856781</v>
+        <v>0.001187168096170588</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001194688536856781</v>
+        <v>0.001187168096170588</v>
       </c>
       <c r="W2" t="n">
         <v>11.68978978979006</v>
